--- a/src/test/resources/data/data.xlsx
+++ b/src/test/resources/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44BE07B-A018-4C45-8A8A-7F9170927B6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4257DB05-4E96-4A3C-83B9-4DC88780CF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="1" r:id="rId1"/>
@@ -342,18 +342,24 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:R660"/>
+      <selection activeCell="C8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="38.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/data/data.xlsx
+++ b/src/test/resources/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4257DB05-4E96-4A3C-83B9-4DC88780CF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2448E9D-F086-4A19-9FCD-BE5E1EE894D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="1" r:id="rId1"/>
@@ -339,29 +339,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:XFD1048576"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="102.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
